--- a/Report_Second_Pearson.xlsx
+++ b/Report_Second_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,29 +485,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>-0.6914893617021276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6262385173353626</v>
+        <v>6.332875812655695</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.89853182937191</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.504954069341535</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="H2" t="n">
-        <v>-118.0473421765202</v>
+        <v>-2.339012326833017</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[19.  4.]</t>
+          <t>[-0.34148182 -0.19333786]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -522,35 +522,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.898531829371914</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="C3" t="n">
-        <v>7.495045930658465</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="D3" t="n">
-        <v>31.9526578234798</v>
+        <v>-3.030501688535145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3658447905295747</v>
+        <v>0.1905886164704917</v>
       </c>
       <c r="F3" t="n">
-        <v>2.014009388570326</v>
+        <v>-0.2672761957678043</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.808093217310844</v>
+        <v>0.106238753696128</v>
       </c>
       <c r="H3" t="n">
-        <v>-17.59545312636053</v>
+        <v>-0.1689365886072731</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-2.29210959 10.88862369]</t>
+          <t>[ 0.70846967 -1.25132707]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[ 0.62624585 -0.37375415]
- [-0.37375415  0.62624585]]</t>
+          <t>[[-0.27824109 -1.27824109]
+ [-1.27824109 -0.27824109]]</t>
         </is>
       </c>
     </row>
@@ -559,35 +559,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1154775591984127</v>
+        <v>1.895285742370049</v>
       </c>
       <c r="C4" t="n">
-        <v>4.686952713347621</v>
+        <v>1.330623412661785</v>
       </c>
       <c r="D4" t="n">
-        <v>14.35720469711928</v>
+        <v>-3.199438277142418</v>
       </c>
       <c r="E4" t="n">
-        <v>3.305348067594794e-05</v>
+        <v>0.968471816849644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001148595726403606</v>
+        <v>0.4856429525147876</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001573522857745147</v>
+        <v>1.221772422944872</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001034663126347368</v>
+        <v>-0.9008737583491855</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[4.54400241 3.25842787]</t>
+          <t>[-0.50145285 -1.2615467 ]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[-0.02775207 -1.02775207]
- [-1.02775207 -0.02775207]]</t>
+          <t>[[1 0]
+ [0 1]]</t>
         </is>
       </c>
     </row>
@@ -596,35 +596,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1155924187710531</v>
+        <v>2.380928694884836</v>
       </c>
       <c r="C5" t="n">
-        <v>4.687110065633395</v>
+        <v>2.552395835606657</v>
       </c>
       <c r="D5" t="n">
-        <v>14.35823936024562</v>
+        <v>-4.100312035491603</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3720560305598584</v>
+        <v>0.09450915975475314</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.135910026981164</v>
+        <v>0.01234619452251717</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.657651696561127</v>
+        <v>0.229808688093986</v>
       </c>
       <c r="H5" t="n">
-        <v>-15.35636023593253</v>
+        <v>-0.07252651155991163</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[4.54407477 3.25862771]</t>
+          <t>[ 1.64649999 -0.65446739]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[1.84230926 0.84230926]
- [0.84230926 1.84230926]]</t>
+          <t>[[-0.79140775 -1.79140775]
+ [-1.79140775 -0.79140775]]</t>
         </is>
       </c>
     </row>
@@ -633,35 +633,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.020317608210111</v>
+        <v>2.393274889407353</v>
       </c>
       <c r="C6" t="n">
-        <v>1.029458369072268</v>
+        <v>2.782204523700643</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.998120875686908</v>
+        <v>-4.172838547051515</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3323091444885113</v>
+        <v>0.2551557195878111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02581676103435226</v>
+        <v>-0.3914645252374407</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02380627624600806</v>
+        <v>0.02103609680670449</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001848019200217266</v>
+        <v>-0.3359251546719575</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.07009359  0.07923435]</t>
+          <t>[ 1.53421811 -0.08244415]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[ 0.16906237 -0.83093763]
- [-0.83093763  0.16906237]]</t>
+          <t>[[1 0]
+ [0 1]]</t>
         </is>
       </c>
     </row>
@@ -670,35 +670,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.994500847175759</v>
+        <v>2.001810364169913</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00565209282626</v>
+        <v>2.803240620507347</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9999688948871253</v>
+        <v>-4.508763701723472</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305348067594794e-05</v>
+        <v>4.348389486982408e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>3.74817902493163e-07</v>
+        <v>2.18805851526227e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>3.596523041604627e-07</v>
+        <v>1.513455606616532e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>4.091781136139616e-09</v>
+        <v>2.673845518330609e-07</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[0.00534621 0.00580503]</t>
+          <t>[0.00880003 0.16393859]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[-0.49633091 -1.49633091]
- [-1.49633091 -0.49633091]]</t>
+          <t>[[-1.96394799 -2.96394799]
+ [-2.96394799 -1.96394799]]</t>
         </is>
       </c>
     </row>
@@ -707,35 +707,183 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.994500472357856</v>
+        <v>2.001812552228428</v>
       </c>
       <c r="C8" t="n">
-        <v>1.005652452478564</v>
+        <v>2.803242133962954</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9999688907953441</v>
+        <v>-4.50876343433892</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2510690638920298</v>
+        <v>0.2855843683986543</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005518881038242718</v>
+        <v>-0.002516185200630794</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.005634065124823007</v>
+        <v>-0.04681987327169557</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.110813614881636e-05</v>
+        <v>-0.003792593412013545</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[0.0053466  0.00580538]</t>
+          <t>[0.00881065 0.1639441 ]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[[2.49165642 1.49165642]
- [1.49165642 2.49165642]]</t>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.999296367027797</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.756422260691259</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-4.512556027750934</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.08827362069286e-08</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3.696812633791069e-08</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6.630518356587345e-11</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[-0.00350993  0.00018923]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[-1.50318452 -2.50318452]
+ [-2.50318452 -1.50318452]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.999296346145061</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.756422223723132</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.512556027684629</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2006694148189</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0007043571775595669</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3.794731176931521e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1.239721843404595e-06</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[-0.00351004  0.0001891 ]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.000000703322621</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.756384276411363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.512557267406472</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.138163341352083e-09</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.792420125303124e-10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.950795411990839e-14</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[3.50845938e-06 6.30527433e-05]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[-2.9850866 -3.9850866]
+ [-3.9850866 -2.9850866]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.000000704460784</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.756384277290605</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.512557267406413</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.29914064386528</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.05122121807355e-06</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1.88625164203593e-05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-5.963265437003429e-10</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[3.51413704e-06 6.30556790e-05]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
         </is>
       </c>
     </row>

--- a/Report_Second_Pearson.xlsx
+++ b/Report_Second_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,402 +485,32 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6914893617021276</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>6.332875812655695</v>
+        <v>1.250000989073863</v>
       </c>
       <c r="F2" t="n">
-        <v>2.162561938137853</v>
+        <v>-10.00000791259088</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224384658965657</v>
+        <v>-10.00000791259124</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.339012326833017</v>
+        <v>-79.99999999994991</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.34148182 -0.19333786]</t>
+          <t>[8. 8.]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>[[1 0]
- [0 1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.162561938137853</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.224384658965657</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-3.030501688535145</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1905886164704917</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.2672761957678043</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.106238753696128</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-0.1689365886072731</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 0.70846967 -1.25132707]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[[-0.27824109 -1.27824109]
- [-1.27824109 -0.27824109]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1.895285742370049</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.330623412661785</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-3.199438277142418</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.968471816849644</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4856429525147876</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.221772422944872</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-0.9008737583491855</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[-0.50145285 -1.2615467 ]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[[1 0]
- [0 1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.380928694884836</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.552395835606657</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-4.100312035491603</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09450915975475314</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01234619452251717</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.229808688093986</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-0.07252651155991163</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[ 1.64649999 -0.65446739]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[[-0.79140775 -1.79140775]
- [-1.79140775 -0.79140775]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.393274889407353</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.782204523700643</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-4.172838547051515</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2551557195878111</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.3914645252374407</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.02103609680670449</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.3359251546719575</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[ 1.53421811 -0.08244415]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[[1 0]
- [0 1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.001810364169913</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.803240620507347</v>
-      </c>
-      <c r="D7" t="n">
-        <v>-4.508763701723472</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4.348389486982408e-06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.18805851526227e-06</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.513455606616532e-06</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.673845518330609e-07</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[0.00880003 0.16393859]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[[-1.96394799 -2.96394799]
- [-2.96394799 -1.96394799]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.001812552228428</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.803242133962954</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-4.50876343433892</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.2855843683986543</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.002516185200630794</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-0.04681987327169557</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.003792593412013545</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[0.00881065 0.1639441 ]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>[[1 0]
- [0 1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.999296367027797</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.756422260691259</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4.512556027750934</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4.348389486982408e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-2.08827362069286e-08</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-3.696812633791069e-08</v>
-      </c>
-      <c r="H9" t="n">
-        <v>6.630518356587345e-11</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[-0.00350993  0.00018923]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[[-1.50318452 -2.50318452]
- [-2.50318452 -1.50318452]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.999296346145061</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.756422223723132</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4.512556027684629</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2006694148189</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.0007043571775595669</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-3.794731176931521e-05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-1.239721843404595e-06</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[-0.00351004  0.0001891 ]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[[1 0]
- [0 1]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.000000703322621</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.756384276411363</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-4.512557267406472</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4.348389486982408e-06</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.138163341352083e-09</v>
-      </c>
-      <c r="G11" t="n">
-        <v>8.792420125303124e-10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>5.950795411990839e-14</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[3.50845938e-06 6.30527433e-05]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[[-2.9850866 -3.9850866]
- [-3.9850866 -2.9850866]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.000000704460784</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.756384277290605</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-4.512557267406413</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.29914064386528</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-1.05122121807355e-06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-1.88625164203593e-05</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-5.963265437003429e-10</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[3.51413704e-06 6.30556790e-05]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>[[1 0]
  [0 1]]</t>

--- a/Report_Second_Pearson.xlsx
+++ b/Report_Second_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,26 +491,914 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>1100</v>
       </c>
       <c r="E2" t="n">
-        <v>1.250000989073863</v>
+        <v>0.05044723330947085</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.00000791259088</v>
+        <v>-10.08944666189416</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.00000791259124</v>
+        <v>-1.008944666189413</v>
       </c>
       <c r="H2" t="n">
-        <v>-79.99999999994991</v>
+        <v>-1019.080916931116</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[8. 8.]</t>
+          <t>[200.  20.]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.08944666189416139</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.991055333810587</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.91908306888389</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.001344383395739696</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001258411196273457</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02024353452155481</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[-1.78893324 17.98211067]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[[-17.98201798 -18.98201798]
+ [-18.98201798 -17.98201798]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0881022784984217</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.992313745006861</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.93932660340545</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4605869371205589</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8115751721386181</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-8.283484490879635</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-75.2027574135777</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[-1.76204557 17.98462749]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7234728936401964</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7088292541272256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.736569189827748</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0001150751773376646</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.00017182948448069</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.001908832909672142</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[14.46945787  1.41765851]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[[-1.57651033 -2.57651033]
+ [-2.57651033 -1.57651033]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.7235879688175341</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7090010836117063</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.738478022737421</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.05043316162549832</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.729856579632815</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.07151433248488537</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-5.331695710059656</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[14.47175938  1.41800217]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.006268610815280962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.637486751126821</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4067823126777639</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.543822969269866e-05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8.934898109203004e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.000102051348766119</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[-0.12537222  1.2749735 ]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[[-17.98273499 -18.98273499]
+ [-18.98273499 -17.98273499]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.006173172585588263</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.637576100107913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4068843640265301</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.461432207468673</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05697001306506164</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.5883962946041242</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.3786625207301689</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[-0.12346345  1.2751522 ]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.05079684047947338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04917980550378875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.02822184329636115</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.903166843244158e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.189314988705309e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.19968975239549e-06</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[1.01593681 0.09835961]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[-1.54279707 -2.54279707]
+ [-2.54279707 -1.54279707]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05080474364631662</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04919169865367581</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.02823104298611354</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0504190899415258</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.05123057878719602</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.00496040135759223</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.02627282196994693</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[1.01609487 0.0983834 ]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.0004258351408793909</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04423129729608358</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001958221016166608</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6.636254659543367e-06</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.214550902230997e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.937153076814242e-07</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-0.0085167   0.08846259]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[-17.98314066 -18.98314066]
+ [-18.98314066 -17.98314066]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.0004191988862198475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.04423751184698581</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.001958714731474289</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4629224227153102</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.003881131280168965</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.04095707231820783</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.001828103688969578</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[-0.00838398  0.08847502]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.003461932393949117</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003280439528777983</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001306110425047118</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5.173852356699787e-07</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7.899325866807944e-07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.100900718347609e-08</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[0.06923865 0.00656088]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[[-1.48315315 -2.48315315]
+ [-2.48315315 -1.48315315]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.003462449779184787</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003281229461364664</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0001306520515118953</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.05040169638357788</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.00349026685027716</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.0003307590621531055</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.0001219390380408301</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[0.069249   0.00656246]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-2.78170710923723e-05</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002950470399211558</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.713013471065192e-06</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.436114376706826e-07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4.155326595494183e-07</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.207374784298744e-09</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[-0.00055634  0.00590094]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[[-17.98384939 -18.98384939]
+ [-18.98384939 -17.98384939]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-2.737345965470162e-05</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002950885931871108</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.71522084584949e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4643463856041312</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0002542153410428242</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.002740466433588856</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-8.156372089075105e-06</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-0.00054747  0.00590177]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0002268418813881225</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0002104194982822517</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5.58848756774385e-07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.257561373217767e-08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.047357890851172e-08</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.690446797167893e-10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[0.00453684 0.00042084]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[[-1.4261885 -2.4261885]
+ [-2.4261885 -1.4261885]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0002268744570018547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0002104699718611602</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5.590178014541018e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.05038762469960536</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.0002286332998667245</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.121016390535329e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-5.231675912643998e-07</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[0.00453749 0.00042094]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-1.758842864869756e-06</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0001892598079558069</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.585021018970196e-08</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2.849662737019169e-08</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.669771397527517e-08</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.112019990830791e-12</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[-3.51768573e-05  3.78519616e-04]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[[-17.98452224 -18.98452224]
+ [-18.98452224 -17.98452224]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.730346237499564e-06</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.0001892865056697822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.585932220969279e-08</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4652968014880037</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.6102491395507e-05</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.0001761488113059811</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-3.362113763206777e-08</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[-3.46069247e-05  3.78573011e-04]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.437214515800744e-05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.313769436380111e-05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.238184577625018e-09</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.007960755045395e-09</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.143618829144944e-09</v>
+      </c>
+      <c r="H21" t="n">
+        <v>6.598240770122496e-13</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[2.87442903e-04 2.62753887e-05]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[-1.38817455 -2.38817455]
+ [-2.38817455 -1.38817455]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.437415311876248e-05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.314083798263025e-05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.23884440170203e-09</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.05037355301563283</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.448154328365612e-05</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.323901397575733e-06</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.099089084971672e-09</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[2.87483062e-04 2.62816760e-05]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.073901648936311e-07</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.181693658505452e-05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.397553167303588e-10</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.783101337575656e-09</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.670992566665187e-09</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.569686217542304e-14</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-2.14780330e-06  2.36338732e-05]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[[-17.98496888 -18.98496888]
+ [-18.98496888 -17.98496888]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.056070635560555e-07</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.181860757762119e-05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.397910135925343e-10</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4667240862508</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.857872047966132e-07</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.103205764484407e-05</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-1.314251819854401e-10</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[-2.11214127e-06  2.36372152e-05]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>8.801801412405578e-07</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.865499327771158e-07</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8.365831607094168e-12</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.178259786778305e-10</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.875328492168078e-10</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.369343629160892e-15</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[1.76036028e-05 1.57309987e-06]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[[-1.33095686 -2.33095686]
+ [-2.33095686 -1.33095686]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.802979672192356e-07</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.867374656263326e-07</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.368200950723329e-12</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05035948133166031</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-8.866269809295111e-07</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-7.923938142625402e-08</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-7.867246847431098e-12</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[1.76059593e-05 1.57347493e-06]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>[[1 0]
  [0 1]]</t>
